--- a/Poisonous_context_stats.xlsx
+++ b/Poisonous_context_stats.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanselitskiy/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD9494D6-8143-1440-8889-6161C2E64D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B0719-7077-D742-A801-44D17CE47FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="4800" windowWidth="28040" windowHeight="17440" xr2:uid="{BD26498C-4F8F-4541-A0BD-798940DCA693}"/>
+    <workbookView xWindow="24080" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{BD26498C-4F8F-4541-A0BD-798940DCA693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,10 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,7 +384,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,15 +409,15 @@
         <v>0.2</v>
       </c>
       <c r="F1">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="G1">
         <f>AVERAGE(B1:F1)</f>
-        <v>0.26200000000000001</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="H1">
         <f>STDEV(B1:F1)</f>
-        <v>0.15880806024884256</v>
+        <v>0.11510864433221338</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -441,15 +437,15 @@
         <v>0.3</v>
       </c>
       <c r="F2">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G5" si="0">AVERAGE(B2:F2)</f>
-        <v>0.49399999999999994</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H5" si="1">STDEV(B2:F2)</f>
-        <v>0.37105255692421812</v>
+        <v>0.36810324638611919</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -469,15 +465,15 @@
         <v>0.8</v>
       </c>
       <c r="F3">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.73199999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.29218145047213373</v>
+        <v>0.29068883707497267</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -525,15 +521,15 @@
         <v>0.7</v>
       </c>
       <c r="F5">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.6120000000000001</v>
+        <v>0.6140000000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.32321819255728762</v>
+        <v>0.32554569571720643</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -555,7 +551,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.79</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -577,15 +573,15 @@
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0.20506096654409858</v>
+        <v>0.29313819266687202</v>
       </c>
       <c r="H7">
         <f>AVERAGE(B1:F5)</f>
-        <v>0.58199999999999996</v>
+        <v>0.57279999999999998</v>
       </c>
       <c r="I7">
         <f>STDEV(B1:F5)</f>
-        <v>0.32727409511498695</v>
+        <v>0.33284781307178041</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -605,15 +601,15 @@
         <v>0.9</v>
       </c>
       <c r="F9">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="G9">
         <f>AVERAGE(B9:F9)</f>
-        <v>0.91799999999999993</v>
+        <v>0.90400000000000014</v>
       </c>
       <c r="H9">
         <f>STDEV(B9:F9)</f>
-        <v>7.3280283842245053E-2</v>
+        <v>6.1886993787063221E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -633,15 +629,15 @@
         <v>0.3</v>
       </c>
       <c r="F10">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:G13" si="4">AVERAGE(B10:F10)</f>
-        <v>0.75800000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="H10">
         <f t="shared" ref="H10:H13" si="5">STDEV(B10:F10)</f>
-        <v>0.28604195496465201</v>
+        <v>0.27662248643232173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -661,15 +657,15 @@
         <v>0.7</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>0.84399999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
-        <v>0.13390294993016397</v>
+        <v>0.1316054710108964</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -689,15 +685,15 @@
         <v>0.85</v>
       </c>
       <c r="F12">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>0.89200000000000002</v>
+        <v>0.88800000000000012</v>
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>0.11476062042355874</v>
+        <v>0.11077003204838393</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -717,15 +713,15 @@
         <v>0.85</v>
       </c>
       <c r="F13">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>0.91199999999999992</v>
+        <v>0.90999999999999992</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>8.1055536516637786E-2</v>
+        <v>7.8740078740118125E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -747,7 +743,7 @@
       </c>
       <c r="F14">
         <f t="shared" ref="F14" si="9">AVERAGE(F9:F13)</f>
-        <v>0.9860000000000001</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -769,15 +765,15 @@
       </c>
       <c r="F15">
         <f t="shared" si="10"/>
-        <v>8.9442719099991665E-3</v>
+        <v>2.4083189157584572E-2</v>
       </c>
       <c r="H15">
         <f>AVERAGE(B9:F13)</f>
-        <v>0.8647999999999999</v>
+        <v>0.85840000000000005</v>
       </c>
       <c r="I15">
         <f>STDEV(B9:F13)</f>
-        <v>0.15647470509105793</v>
+        <v>0.15206029505868141</v>
       </c>
     </row>
   </sheetData>
